--- a/cedulas_cerrar_sesion.xlsx
+++ b/cedulas_cerrar_sesion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ContratosSuperflex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CE3E807-7A1E-4407-A333-7AB93ACE9D87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E4D0AAC-4E70-4A17-8362-A6110BAE138D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42675" yWindow="4440" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -26,13 +26,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -55,8 +61,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -338,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A56"/>
+  <dimension ref="A2:A136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -515,113 +522,513 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
+      <c r="A35">
         <v>21205258</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
+      <c r="A36">
         <v>17360686</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
+      <c r="A37">
         <v>51642333</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
+      <c r="A38">
         <v>3292415</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
+      <c r="A39">
         <v>11373533</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
+      <c r="A40">
         <v>30030456</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
+      <c r="A41">
         <v>70052315</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
+      <c r="A42">
         <v>3282146</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
+      <c r="A43">
         <v>3045925</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
+      <c r="A44">
         <v>21173140</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
+      <c r="A45">
         <v>21234532</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
+      <c r="A46">
         <v>6671921</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
+      <c r="A47">
         <v>4561950</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
+      <c r="A48">
         <v>40422362</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
+      <c r="A49">
         <v>40447756</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
+      <c r="A50">
         <v>19337954</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
+      <c r="A51">
         <v>30055021</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
+      <c r="A52">
         <v>40446257</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1">
+      <c r="A53">
         <v>40434896</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1">
+      <c r="A54">
         <v>1123860656</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1">
+      <c r="A55">
         <v>30055352</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1">
+      <c r="A56">
         <v>40362705</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1">
+        <v>59671136</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1">
+        <v>21177991</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1">
+        <v>14993451</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1">
+        <v>40361978</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="1">
+        <v>7818547</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1">
+        <v>40412991</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1">
+        <v>86040029</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="2">
+        <v>40265797</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2">
+        <v>37559806</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="2">
+        <v>79849312</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>1033774813</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="2">
+        <v>1121148787</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2">
+        <v>53154537</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="2">
+        <v>40431599</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2">
+        <v>30002107</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="2">
+        <v>1121906197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2">
+        <v>1000807612</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="2">
+        <v>31006869</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2">
+        <v>1124190027</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
+        <v>40306131</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2">
+        <v>40422019</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="2">
+        <v>1006697169</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2">
+        <v>1124216732</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="2">
+        <v>1120355361</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="2">
+        <v>30081386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="2">
+        <v>1122138895</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="2">
+        <v>21940107</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="2">
+        <v>40187078</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="2">
+        <v>40433512</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="2">
+        <v>18598661</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="2">
+        <v>86009284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="2">
+        <v>31006780</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="2">
+        <v>28845786</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="2">
+        <v>1071304162</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>1120373472</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="2">
+        <v>14952515</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="2">
+        <v>1104184087</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="2">
+        <v>1098436557</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="2">
+        <v>21182488</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="2">
+        <v>1076200860</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="2">
+        <v>1118562246</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="2">
+        <v>1012413227</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="2">
+        <v>1005181518</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
+        <v>1119887995</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
+        <v>1120369362</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="2">
+        <v>1006777681</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
+        <v>80266280</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A104" s="2">
+        <v>1120362791</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A105" s="2">
+        <v>1111197763</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A106" s="2">
+        <v>1121875236</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A107" s="2">
+        <v>1122138809</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A108" s="2">
+        <v>1123512956</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A109" s="2">
+        <v>1121416747</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A110" s="2">
+        <v>1120498474</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A111" s="2">
+        <v>1123114456</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A112" s="2">
+        <v>40405695</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A113" s="2">
+        <v>1120372119</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A114" s="2">
+        <v>1123114061</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A115" s="2">
+        <v>1121903090</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A116" s="2">
+        <v>1116505062</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A117" s="2">
+        <v>1006697920</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A118" s="2">
+        <v>40265478</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A119" s="2">
+        <v>1123085348</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A120" s="2">
+        <v>1120006623</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A121" s="2">
+        <v>1122646404</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A122" s="2">
+        <v>1056771673</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A123" s="2">
+        <v>21991161</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A124" s="2">
+        <v>40445242</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A125" s="2">
+        <v>1120381379</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A126" s="2">
+        <v>1121921932</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A127" s="2">
+        <v>1000693714</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A128" s="2">
+        <v>1005319257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A129" s="2">
+        <v>1193112708</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A130" s="2">
+        <v>1120355934</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A131" s="2">
+        <v>1016945097</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A132" s="2">
+        <v>1006777121</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A133" s="2">
+        <v>1121146244</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A134" s="2">
+        <v>1123515171</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A135" s="2">
+        <v>1006874253</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A136" s="2">
+        <v>1123567290</v>
       </c>
     </row>
   </sheetData>

--- a/cedulas_cerrar_sesion.xlsx
+++ b/cedulas_cerrar_sesion.xlsx
@@ -1,52 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ContratosSuperflex\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995A86DB-44BB-4898-918A-5ADBEFBEEFC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -61,24 +57,84 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -344,410 +400,414 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A2:A80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col width="24.77734375" customWidth="1" style="1" min="1" max="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2">
+      <c r="A2" s="3" t="n">
         <v>21229026</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="3">
+      <c r="A3" t="n">
         <v>39727147</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="4">
+      <c r="A4" t="n">
         <v>17329021</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="5">
+      <c r="A5" t="n">
         <v>39728361</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="6">
+      <c r="A6" t="n">
         <v>40334977</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="7">
+      <c r="A7" t="n">
         <v>1125552959</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8">
+      <c r="A8" t="n">
         <v>1023035549</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="9">
+      <c r="A9" t="n">
         <v>38290869</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
+    <row r="10">
+      <c r="A10" t="n">
         <v>40386471</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+    <row r="11">
+      <c r="A11" t="n">
         <v>1121946821</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
+    <row r="12">
+      <c r="A12" t="n">
         <v>1007816099</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+    <row r="13">
+      <c r="A13" t="n">
         <v>1006797846</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
+    <row r="14">
+      <c r="A14" t="n">
         <v>1006774144</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+    <row r="15">
+      <c r="A15" t="n">
         <v>1121872788</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
+    <row r="16">
+      <c r="A16" t="n">
         <v>24100971</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" t="n">
         <v>1029981260</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
+    <row r="18">
+      <c r="A18" t="n">
         <v>1121830619</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" t="n">
         <v>1006794572</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" t="n">
         <v>1006824446</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" t="n">
         <v>1096196072</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" t="n">
         <v>1034660761</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1">
+    <row r="23">
+      <c r="A23" t="n">
         <v>21205258</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+    <row r="24">
+      <c r="A24" t="n">
         <v>17360686</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+    <row r="25">
+      <c r="A25" t="n">
         <v>51642333</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
+    <row r="26">
+      <c r="A26" t="n">
         <v>3292415</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1">
+    <row r="27">
+      <c r="A27" t="n">
         <v>11373533</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
+    <row r="28">
+      <c r="A28" t="n">
         <v>30030456</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
+    <row r="29">
+      <c r="A29" t="n">
         <v>70052315</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+    <row r="30">
+      <c r="A30" t="n">
         <v>3282146</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+    <row r="31">
+      <c r="A31" t="n">
         <v>3045925</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1">
+    <row r="32">
+      <c r="A32" t="n">
         <v>21173140</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
+    <row r="33">
+      <c r="A33" t="n">
         <v>21234532</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
+    <row r="34">
+      <c r="A34" t="n">
         <v>6671921</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="1">
+    <row r="35">
+      <c r="A35" t="n">
         <v>4561950</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1">
+    <row r="36">
+      <c r="A36" t="n">
         <v>19337954</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1">
+    <row r="37">
+      <c r="A37" t="n">
         <v>40434896</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1">
+    <row r="38">
+      <c r="A38" t="n">
         <v>1123860656</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1">
+    <row r="39">
+      <c r="A39" t="n">
         <v>30055352</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>59671136</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>21177991</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>14993451</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>40361978</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>7818547</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>40412991</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>86040029</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="1">
+    <row r="47">
+      <c r="A47" t="n">
         <v>40265797</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="1">
+    <row r="48">
+      <c r="A48" t="n">
         <v>37559806</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="1">
+    <row r="49">
+      <c r="A49" t="n">
         <v>79849312</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="1">
+    <row r="50">
+      <c r="A50" t="n">
         <v>1121148787</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="1">
+    <row r="51">
+      <c r="A51" t="n">
         <v>1000807612</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="1">
+    <row r="52">
+      <c r="A52" t="n">
         <v>31006869</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="1">
+    <row r="53">
+      <c r="A53" t="n">
         <v>1124190027</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="1">
+    <row r="54">
+      <c r="A54" t="n">
         <v>40422019</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="1">
+    <row r="55">
+      <c r="A55" t="n">
         <v>1006697169</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="1">
+    <row r="56">
+      <c r="A56" t="n">
         <v>1124216732</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A57" s="1">
+    <row r="57">
+      <c r="A57" t="n">
         <v>30081386</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A58" s="1">
+    <row r="58">
+      <c r="A58" t="n">
         <v>21940107</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A59" s="1">
+    <row r="59">
+      <c r="A59" t="n">
         <v>40433512</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A60" s="1">
+    <row r="60">
+      <c r="A60" t="n">
         <v>18598661</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A61" s="1">
+    <row r="61">
+      <c r="A61" t="n">
         <v>86009284</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A62" s="1">
+    <row r="62">
+      <c r="A62" t="n">
         <v>31006780</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A63" s="1">
+    <row r="63">
+      <c r="A63" t="n">
         <v>28845786</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A64" s="1">
+    <row r="64">
+      <c r="A64" t="n">
         <v>1120373472</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
+    <row r="65">
+      <c r="A65" t="n">
         <v>14952515</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
+    <row r="66">
+      <c r="A66" t="n">
         <v>1098436557</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
+    <row r="67">
+      <c r="A67" t="n">
         <v>80266280</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1">
+    <row r="68">
+      <c r="A68" t="n">
         <v>1121875236</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
+    <row r="69">
+      <c r="A69" t="n">
         <v>1123512956</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1">
+    <row r="70">
+      <c r="A70" t="n">
         <v>1123114061</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1">
+    <row r="71">
+      <c r="A71" t="n">
         <v>1121903090</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1">
+    <row r="72">
+      <c r="A72" t="n">
         <v>1006697920</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1">
+    <row r="73">
+      <c r="A73" t="n">
         <v>1123085348</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1">
+    <row r="74">
+      <c r="A74" t="n">
         <v>1120006623</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1">
+    <row r="75">
+      <c r="A75" t="n">
         <v>1122646404</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1">
+    <row r="76">
+      <c r="A76" t="n">
         <v>21991161</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1">
+    <row r="77">
+      <c r="A77" t="n">
         <v>1120381379</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1">
+    <row r="78">
+      <c r="A78" t="n">
         <v>1121921932</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1">
+    <row r="79">
+      <c r="A79" t="n">
         <v>1006874253</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1">
+    <row r="80">
+      <c r="A80" t="n">
         <v>1123567290</v>
       </c>
     </row>

--- a/cedulas_cerrar_sesion.xlsx
+++ b/cedulas_cerrar_sesion.xlsx
@@ -1,47 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ContratosSuperflex\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DCF88D-D836-48AF-BF04-943FECA854AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="8500" yWindow="5380" windowWidth="8740" windowHeight="5400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -57,84 +70,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -400,418 +355,260 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:A80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="24.77734375" customWidth="1" style="1" min="1" max="1"/>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>21229026</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>39727147</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>17329021</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>39728361</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>40334977</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1125552959</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
         <v>1023035549</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
         <v>38290869</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>40386471</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
         <v>1121946821</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>1007816099</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="D4" s="3">
+        <v>1023035549</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>1006797846</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>1006774144</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>1121872788</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>24100971</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1029981260</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1121830619</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>1006794572</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>1006824446</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1096196072</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>1034660761</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>21205258</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>17360686</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>51642333</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>3292415</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>11373533</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>30030456</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
-        <v>70052315</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
-        <v>3282146</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>3045925</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>21173140</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>21234532</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>6671921</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>4561950</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>19337954</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>40434896</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>1123860656</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>30055352</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>59671136</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>21177991</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>14993451</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>40361978</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>7818547</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
-        <v>40412991</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>86040029</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>40265797</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>37559806</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="n">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>79849312</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>1121148787</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>1000807612</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="n">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>31006869</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="n">
-        <v>1124190027</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="n">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>40422019</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" t="n">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>1006697169</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" t="n">
-        <v>1124216732</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>30081386</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" t="n">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>21940107</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>40433512</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>18598661</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="n">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>86009284</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="n">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>31006780</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="n">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>28845786</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="n">
-        <v>1120373472</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="n">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>14952515</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="n">
-        <v>1098436557</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="n">
-        <v>80266280</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>1121875236</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="n">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>1123512956</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="n">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>1123114061</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="n">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>1121903090</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="n">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>1006697920</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="n">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>1123085348</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="n">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>1120006623</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>1122646404</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>21991161</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>1120381379</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>1121921932</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" t="n">
-        <v>1006874253</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="n">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>1123567290</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="2321" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cedulas_cerrar_sesion.xlsx
+++ b/cedulas_cerrar_sesion.xlsx
@@ -1,52 +1,47 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ContratosSuperflex\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DCF88D-D836-48AF-BF04-943FECA854AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8500" yWindow="5380" windowWidth="8740" windowHeight="5400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8500" yWindow="5380" windowWidth="8740" windowHeight="5400" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,6 +50,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+        <bgColor rgb="0000FF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -70,26 +71,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -355,260 +416,264 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A2:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1"/>
-    <col min="4" max="4" width="16.453125" customWidth="1"/>
+    <col width="24.81640625" customWidth="1" style="3" min="1" max="1"/>
+    <col width="16.453125" customWidth="1" style="3" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2">
+      <c r="A2" s="5" t="n">
         <v>1023035549</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+    <row r="3">
+      <c r="A3" s="5" t="n">
         <v>38290869</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+    <row r="4">
+      <c r="A4" s="5" t="n">
         <v>1121946821</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" t="n">
         <v>1023035549</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>1006797846</v>
       </c>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6">
+      <c r="D5" s="4" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
         <v>1006774144</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7">
+      <c r="A7" t="n">
         <v>1121872788</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8">
+      <c r="A8" t="n">
         <v>1006794572</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9">
+      <c r="A9" t="n">
         <v>1006824446</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10">
+      <c r="A10" t="n">
         <v>3045925</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11">
+      <c r="A11" t="n">
         <v>21173140</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12">
+      <c r="A12" t="n">
         <v>21234532</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13">
+      <c r="A13" t="n">
         <v>6671921</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14">
+      <c r="A14" t="n">
         <v>4561950</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15">
+      <c r="A15" t="n">
         <v>19337954</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16">
+      <c r="A16" t="n">
         <v>40434896</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1">
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>59671136</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1">
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>21177991</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1">
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>14993451</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1">
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>40361978</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1">
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>7818547</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>86040029</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23">
+      <c r="A23" t="n">
         <v>40265797</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24">
+      <c r="A24" t="n">
         <v>37559806</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25">
+    <row r="25">
+      <c r="A25" t="n">
         <v>79849312</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="26">
+      <c r="A26" t="n">
         <v>1000807612</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27">
+    <row r="27">
+      <c r="A27" t="n">
         <v>31006869</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28">
+    <row r="28">
+      <c r="A28" t="n">
         <v>40422019</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29">
+    <row r="29">
+      <c r="A29" t="n">
         <v>1006697169</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30">
+    <row r="30">
+      <c r="A30" t="n">
         <v>30081386</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31">
+    <row r="31">
+      <c r="A31" t="n">
         <v>21940107</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32">
+    <row r="32">
+      <c r="A32" t="n">
         <v>18598661</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33">
+    <row r="33">
+      <c r="A33" t="n">
         <v>86009284</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34">
+    <row r="34">
+      <c r="A34" t="n">
         <v>31006780</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35">
+    <row r="35">
+      <c r="A35" t="n">
         <v>28845786</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36">
+    <row r="36">
+      <c r="A36" t="n">
         <v>14952515</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37">
+    <row r="37">
+      <c r="A37" t="n">
         <v>1121875236</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38">
+    <row r="38">
+      <c r="A38" t="n">
         <v>1123512956</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39">
+    <row r="39">
+      <c r="A39" t="n">
         <v>1123114061</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40">
+    <row r="40">
+      <c r="A40" t="n">
         <v>1121903090</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41">
+    <row r="41">
+      <c r="A41" t="n">
         <v>1006697920</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42">
+    <row r="42">
+      <c r="A42" t="n">
         <v>1123085348</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43">
+    <row r="43">
+      <c r="A43" t="n">
         <v>1120006623</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44">
+    <row r="44">
+      <c r="A44" t="n">
         <v>1122646404</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45">
+    <row r="45">
+      <c r="A45" t="n">
         <v>21991161</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46">
+    <row r="46">
+      <c r="A46" t="n">
         <v>1120381379</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47">
+    <row r="47">
+      <c r="A47" t="n">
         <v>1121921932</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48">
+    <row r="48">
+      <c r="A48" t="n">
         <v>1123567290</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="2321" orientation="portrait" horizontalDpi="160" verticalDpi="144" r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="2321" horizontalDpi="160" verticalDpi="144"/>
 </worksheet>
 </file>
--- a/cedulas_cerrar_sesion.xlsx
+++ b/cedulas_cerrar_sesion.xlsx
@@ -1,47 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ContratosSuperflex\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E11BD8-9E54-41D0-A518-C632D053BC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="8500" yWindow="5380" windowWidth="8740" windowHeight="5400" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="34485" yWindow="0" windowWidth="14400" windowHeight="7365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>9/12/2025 se hizo la noche del: 5/12/2025</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <u val="single"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -54,8 +67,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0000FF00"/>
-        <bgColor rgb="0000FF00"/>
+        <fgColor rgb="FF00FF00"/>
+        <bgColor rgb="FF00FF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -72,85 +91,107 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -416,264 +457,567 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:D48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="24.81640625" customWidth="1" style="3" min="1" max="1"/>
-    <col width="16.453125" customWidth="1" style="3" min="4" max="4"/>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="A2" s="5" t="n">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
         <v>1023035549</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="5" t="n">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="4">
         <v>38290869</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="5" t="n">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="4">
         <v>1121946821</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>1023035549</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
         <v>1006797846</v>
       </c>
-      <c r="D5" s="4" t="n"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>1006774144</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
         <v>1121872788</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>1006794572</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
         <v>1006824446</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>3045925</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
         <v>21173140</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="n">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>21234532</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="n">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>6671921</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="n">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>4561950</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="n">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15">
         <v>19337954</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="n">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>40434896</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
         <v>59671136</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
         <v>21177991</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
         <v>14993451</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
         <v>40361978</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
         <v>7818547</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
         <v>86040029</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="n">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23">
         <v>40265797</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="n">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24">
         <v>37559806</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="n">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25">
         <v>79849312</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="n">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26">
         <v>1000807612</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="n">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27">
         <v>31006869</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="n">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28">
         <v>40422019</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="n">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29">
         <v>1006697169</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="n">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30">
         <v>30081386</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="n">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31">
         <v>21940107</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="n">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32">
         <v>18598661</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="n">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33">
         <v>86009284</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="n">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34">
         <v>31006780</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="n">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
         <v>28845786</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="n">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36">
         <v>14952515</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="n">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37">
         <v>1121875236</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="n">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38">
         <v>1123512956</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="n">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39">
         <v>1123114061</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="n">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40">
         <v>1121903090</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="n">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41">
         <v>1006697920</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="n">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42">
         <v>1123085348</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="n">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43">
         <v>1120006623</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44">
         <v>1122646404</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="n">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45">
         <v>21991161</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" t="n">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46">
         <v>1120381379</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="n">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47">
         <v>1121921932</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="n">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48">
         <v>1123567290</v>
       </c>
     </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="4">
+        <v>21205258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="4">
+        <v>40446511</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="4">
+        <v>7843448</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="4">
+        <v>70052315</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <v>21229026</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="4">
+        <v>17329021</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="4">
+        <v>39728361</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="4">
+        <v>41767235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="4">
+        <v>40367654</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="2">
+        <v>40316677</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="4">
+        <v>1123087331</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2">
+        <v>68297670</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="4">
+        <v>14952515</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="4">
+        <v>1121820414</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="4">
+        <v>1122126489</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="4">
+        <v>1121924397</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="4">
+        <v>19404656</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2">
+        <v>80155489</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="4">
+        <v>52293809</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="4">
+        <v>21185176</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="4">
+        <v>1121969796</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>1122648762</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="4">
+        <v>1030555237</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="4">
+        <v>1119893263</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="4">
+        <v>1123114667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="4">
+        <v>1000285266</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="2">
+        <v>1074929081</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="4">
+        <v>1035390002</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="4">
+        <v>1084728774</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="4">
+        <v>80816943</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="4">
+        <v>1123562601</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="4">
+        <v>1089000665</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="4">
+        <v>1122652449</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="4">
+        <v>38794838</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="4">
+        <v>41059265</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="4">
+        <v>1123141031</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="4">
+        <v>30081607</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="4">
+        <v>28119937</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="4">
+        <v>40333161</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="4">
+        <v>53090088</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="4">
+        <v>1112771422</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="2">
+        <v>800159687</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="4">
+        <v>1122507035</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="4">
+        <v>40316677</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="2">
+        <v>68297670</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="2">
+        <v>80155489</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="5">
+        <v>1122648762</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="4">
+        <v>1074929081</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="2">
+        <v>800159687</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="4">
+        <v>17329021</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="2">
+        <v>68297670</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="2">
+        <v>80155489</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A102" s="4">
+        <v>17416510</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A103" s="2">
+        <v>800159687</v>
+      </c>
+    </row>
   </sheetData>
+  <conditionalFormatting sqref="A50:A92">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>31006459</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>31006459</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93:A98">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+      <formula>31006459</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+      <formula>31006459</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102:A103">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>31006459</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>31006459</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99:A101">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>31006459</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>31006459</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="2321" horizontalDpi="160" verticalDpi="144"/>
+  <pageSetup paperSize="2321" orientation="portrait" horizontalDpi="160" verticalDpi="144"/>
 </worksheet>
 </file>